--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\UMich\SURE 2022\workspace\YOLOv4-DOT-visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192EDD98-D192-4991-9323-89A2D9886D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF8785B-A5BA-4298-8BD8-95E511BDDCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{B7E93F32-78D1-4619-84BC-8AFA962562A1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="236">
   <si>
     <t>Tensor name</t>
   </si>
@@ -335,10 +335,412 @@
     <t>d5_conv5</t>
   </si>
   <si>
-    <t>d5_conv5_x5         </t>
-  </si>
-  <si>
-    <t>backbone_output</t>
+    <t>d5_conv5_input       </t>
+  </si>
+  <si>
+    <t>d5_conv5        </t>
+  </si>
+  <si>
+    <t>nk_conv1       </t>
+  </si>
+  <si>
+    <t>nk_conv1_x1          </t>
+  </si>
+  <si>
+    <t>nk_conv1        </t>
+  </si>
+  <si>
+    <t>nk_conv2       </t>
+  </si>
+  <si>
+    <t>nk_conv2_x2          </t>
+  </si>
+  <si>
+    <t>nk_conv2        </t>
+  </si>
+  <si>
+    <t>nk_conv3       </t>
+  </si>
+  <si>
+    <t>nk_conv3_x3          </t>
+  </si>
+  <si>
+    <t>nk_conv3        </t>
+  </si>
+  <si>
+    <t>nk_maxpl1      </t>
+  </si>
+  <si>
+    <t>nk_maxpl2      </t>
+  </si>
+  <si>
+    <t>nk_maxpl3      </t>
+  </si>
+  <si>
+    <t>nk_conv4       </t>
+  </si>
+  <si>
+    <t>nk_maxpl1_m1         </t>
+  </si>
+  <si>
+    <t>nk_maxpl1       </t>
+  </si>
+  <si>
+    <t>nk_maxpl2_m2         </t>
+  </si>
+  <si>
+    <t>nk_maxpl2       </t>
+  </si>
+  <si>
+    <t>nk_maxpl3_m3         </t>
+  </si>
+  <si>
+    <t>nk_maxpl3       </t>
+  </si>
+  <si>
+    <t>nk_conv4_x4          </t>
+  </si>
+  <si>
+    <t>nk_conv4        </t>
+  </si>
+  <si>
+    <t>nk_conv5       </t>
+  </si>
+  <si>
+    <t>nk_conv5_x5          </t>
+  </si>
+  <si>
+    <t>nk_conv5        </t>
+  </si>
+  <si>
+    <t>nk_conv6       </t>
+  </si>
+  <si>
+    <t>nk_conv6_x6          </t>
+  </si>
+  <si>
+    <t>nk_conv6        </t>
+  </si>
+  <si>
+    <t>nk_conv7       </t>
+  </si>
+  <si>
+    <t>nk_conv7_x7          </t>
+  </si>
+  <si>
+    <t>nk_conv7        </t>
+  </si>
+  <si>
+    <t>nk_upspl1      </t>
+  </si>
+  <si>
+    <t>d4_conv5_downsample4 </t>
+  </si>
+  <si>
+    <t>nk_conv8       </t>
+  </si>
+  <si>
+    <t>nk_conv8_x8          </t>
+  </si>
+  <si>
+    <t>nk_conv8        </t>
+  </si>
+  <si>
+    <t>nk_conv9       </t>
+  </si>
+  <si>
+    <t>nk_upspl1_up         </t>
+  </si>
+  <si>
+    <t>nk_upspl1       </t>
+  </si>
+  <si>
+    <t>nk_conv9_x9          </t>
+  </si>
+  <si>
+    <t>nk_conv9        </t>
+  </si>
+  <si>
+    <t>nk_conv10      </t>
+  </si>
+  <si>
+    <t>nk_conv10_x10        </t>
+  </si>
+  <si>
+    <t>nk_conv10       </t>
+  </si>
+  <si>
+    <t>nk_conv11      </t>
+  </si>
+  <si>
+    <t>nk_conv11_x11        </t>
+  </si>
+  <si>
+    <t>nk_conv11       </t>
+  </si>
+  <si>
+    <t>nk_conv12      </t>
+  </si>
+  <si>
+    <t>nk_conv12_x12        </t>
+  </si>
+  <si>
+    <t>nk_conv12       </t>
+  </si>
+  <si>
+    <t>nk_conv13      </t>
+  </si>
+  <si>
+    <t>nk_conv13_x13        </t>
+  </si>
+  <si>
+    <t>nk_conv13       </t>
+  </si>
+  <si>
+    <t>nk_conv14      </t>
+  </si>
+  <si>
+    <t>nk_conv14_x14        </t>
+  </si>
+  <si>
+    <t>nk_conv14       </t>
+  </si>
+  <si>
+    <t>nk_upspl2      </t>
+  </si>
+  <si>
+    <t>d3_conv5_downsample3 </t>
+  </si>
+  <si>
+    <t>nk_conv15      </t>
+  </si>
+  <si>
+    <t>nk_conv15_x15        </t>
+  </si>
+  <si>
+    <t>nk_conv15       </t>
+  </si>
+  <si>
+    <t>nk_conv16      </t>
+  </si>
+  <si>
+    <t>nk_upspl2_up         </t>
+  </si>
+  <si>
+    <t>nk_upspl2       </t>
+  </si>
+  <si>
+    <t>nk_conv16_x16        </t>
+  </si>
+  <si>
+    <t>nk_conv16       </t>
+  </si>
+  <si>
+    <t>nk_conv17      </t>
+  </si>
+  <si>
+    <t>nk_conv17_x17        </t>
+  </si>
+  <si>
+    <t>nk_conv17       </t>
+  </si>
+  <si>
+    <t>nk_conv18      </t>
+  </si>
+  <si>
+    <t>nk_conv18_x18        </t>
+  </si>
+  <si>
+    <t>nk_conv18       </t>
+  </si>
+  <si>
+    <t>nk_conv19      </t>
+  </si>
+  <si>
+    <t>nk_conv19_x19        </t>
+  </si>
+  <si>
+    <t>nk_conv19       </t>
+  </si>
+  <si>
+    <t>nk_conv20      </t>
+  </si>
+  <si>
+    <t>nk_conv20_input1     </t>
+  </si>
+  <si>
+    <t>nk_conv20       </t>
+  </si>
+  <si>
+    <t>hd_conv1       </t>
+  </si>
+  <si>
+    <t>hd_conv1_x1          </t>
+  </si>
+  <si>
+    <t>hd_conv1        </t>
+  </si>
+  <si>
+    <t>hd_conv2       </t>
+  </si>
+  <si>
+    <t>hd_conv2_x2          </t>
+  </si>
+  <si>
+    <t>hd_conv2        </t>
+  </si>
+  <si>
+    <t>hd_conv3       </t>
+  </si>
+  <si>
+    <t>hd_conv3_x3          </t>
+  </si>
+  <si>
+    <t>hd_conv3        </t>
+  </si>
+  <si>
+    <t>hd_conv4       </t>
+  </si>
+  <si>
+    <t>nk_conv13_input2     </t>
+  </si>
+  <si>
+    <t>hd_conv4_x4          </t>
+  </si>
+  <si>
+    <t>hd_conv4        </t>
+  </si>
+  <si>
+    <t>hd_conv5       </t>
+  </si>
+  <si>
+    <t>hd_conv5_x5          </t>
+  </si>
+  <si>
+    <t>hd_conv5        </t>
+  </si>
+  <si>
+    <t>hd_conv6       </t>
+  </si>
+  <si>
+    <t>hd_conv6_x6          </t>
+  </si>
+  <si>
+    <t>hd_conv6        </t>
+  </si>
+  <si>
+    <t>hd_conv7       </t>
+  </si>
+  <si>
+    <t>hd_conv7_x7          </t>
+  </si>
+  <si>
+    <t>hd_conv7        </t>
+  </si>
+  <si>
+    <t>hd_conv8       </t>
+  </si>
+  <si>
+    <t>hd_conv8_x8          </t>
+  </si>
+  <si>
+    <t>hd_conv8        </t>
+  </si>
+  <si>
+    <t>hd_conv9       </t>
+  </si>
+  <si>
+    <t>hd_conv11      </t>
+  </si>
+  <si>
+    <t>hd_conv9_x9          </t>
+  </si>
+  <si>
+    <t>hd_conv9        </t>
+  </si>
+  <si>
+    <t>hd_conv10      </t>
+  </si>
+  <si>
+    <t>hd_conv11_x11        </t>
+  </si>
+  <si>
+    <t>hd_conv11       </t>
+  </si>
+  <si>
+    <t>hd_conv12      </t>
+  </si>
+  <si>
+    <t>nk_conv6_input3      </t>
+  </si>
+  <si>
+    <t>hd_conv12_x12        </t>
+  </si>
+  <si>
+    <t>hd_conv12       </t>
+  </si>
+  <si>
+    <t>hd_conv13      </t>
+  </si>
+  <si>
+    <t>hd_conv13_x13        </t>
+  </si>
+  <si>
+    <t>hd_conv13       </t>
+  </si>
+  <si>
+    <t>hd_conv14      </t>
+  </si>
+  <si>
+    <t>hd_conv14_x14        </t>
+  </si>
+  <si>
+    <t>hd_conv14       </t>
+  </si>
+  <si>
+    <t>hd_conv15      </t>
+  </si>
+  <si>
+    <t>hd_conv15_x15        </t>
+  </si>
+  <si>
+    <t>hd_conv15       </t>
+  </si>
+  <si>
+    <t>hd_conv16      </t>
+  </si>
+  <si>
+    <t>hd_conv16_x16        </t>
+  </si>
+  <si>
+    <t>hd_conv16       </t>
+  </si>
+  <si>
+    <t>hd_conv17      </t>
+  </si>
+  <si>
+    <t>hd_conv17_x17        </t>
+  </si>
+  <si>
+    <t>hd_conv17       </t>
+  </si>
+  <si>
+    <t>hd_conv18      </t>
+  </si>
+  <si>
+    <t>head_output    </t>
+  </si>
+  <si>
+    <t>hd_conv10_x10        </t>
+  </si>
+  <si>
+    <t>hd_conv10       </t>
+  </si>
+  <si>
+    <t>hd_conv18_x18        </t>
+  </si>
+  <si>
+    <t>hd_conv18       </t>
   </si>
 </sst>
 </file>
@@ -381,18 +783,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4D4D4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -424,7 +820,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,11 +833,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,15 +1150,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B92703-FB2A-4599-931A-6F6A1864E195}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" thickBot="1">
+    <row r="1" spans="1:5" ht="23.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,8 +1172,9 @@
         <v>2</v>
       </c>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +1185,9 @@
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +1198,9 @@
         <v>8</v>
       </c>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -812,8 +1211,9 @@
         <v>11</v>
       </c>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -824,8 +1224,9 @@
         <v>12</v>
       </c>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="23.25" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -836,8 +1237,9 @@
         <v>15</v>
       </c>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="23.25" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -848,8 +1250,9 @@
         <v>18</v>
       </c>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -860,8 +1263,9 @@
         <v>21</v>
       </c>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -872,8 +1276,9 @@
         <v>24</v>
       </c>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -884,8 +1289,9 @@
         <v>24</v>
       </c>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="23.25" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -896,8 +1302,9 @@
         <v>27</v>
       </c>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="23.25" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -908,8 +1315,9 @@
         <v>30</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="23.25" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -920,8 +1328,9 @@
         <v>31</v>
       </c>
       <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="23.25" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -932,8 +1341,9 @@
         <v>34</v>
       </c>
       <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="23.25" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -944,8 +1354,9 @@
         <v>37</v>
       </c>
       <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.25" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -956,8 +1367,9 @@
         <v>40</v>
       </c>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="23.25" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -968,8 +1380,9 @@
         <v>40</v>
       </c>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="23.25" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -980,8 +1393,9 @@
         <v>43</v>
       </c>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="23.25" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -992,8 +1406,9 @@
         <v>46</v>
       </c>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="23.25" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -1004,8 +1419,9 @@
         <v>47</v>
       </c>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="23.25" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -1016,8 +1432,9 @@
         <v>50</v>
       </c>
       <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="23.25" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1028,8 +1445,9 @@
         <v>53</v>
       </c>
       <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="23.25" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -1040,8 +1458,9 @@
         <v>56</v>
       </c>
       <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="23.25" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -1052,8 +1471,9 @@
         <v>56</v>
       </c>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="23.25" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -1064,8 +1484,9 @@
         <v>59</v>
       </c>
       <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="23.25" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
@@ -1076,8 +1497,9 @@
         <v>62</v>
       </c>
       <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="23.25" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1088,8 +1510,9 @@
         <v>63</v>
       </c>
       <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="23.25" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -1100,8 +1523,9 @@
         <v>66</v>
       </c>
       <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="23.25" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -1112,8 +1536,9 @@
         <v>69</v>
       </c>
       <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="23.25" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>95</v>
       </c>
@@ -1124,8 +1549,9 @@
         <v>72</v>
       </c>
       <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="23.25" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -1136,8 +1562,9 @@
         <v>72</v>
       </c>
       <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="23.25" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>73</v>
       </c>
@@ -1148,8 +1575,9 @@
         <v>75</v>
       </c>
       <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="23.25" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>76</v>
       </c>
@@ -1160,8 +1588,9 @@
         <v>78</v>
       </c>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="23.25" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -1172,8 +1601,9 @@
         <v>79</v>
       </c>
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="23.25" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>80</v>
       </c>
@@ -1184,8 +1614,9 @@
         <v>82</v>
       </c>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" ht="23.25" thickBot="1">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="23.25" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
@@ -1195,8 +1626,10 @@
       <c r="C36" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="23.25" thickBot="1">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="23.25" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -1206,8 +1639,10 @@
       <c r="C37" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="23.25" thickBot="1">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="23.25" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>86</v>
       </c>
@@ -1217,17 +1652,723 @@
       <c r="C38" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="23.25" thickBot="1">
-      <c r="A39" s="4" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A43" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A44" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A46" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A48" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A49" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A52" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A53" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A54" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A55" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A60" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A61" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A62" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>101</v>
       </c>
+      <c r="C62" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A75" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="34.5" thickBot="1">
+      <c r="A76" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="34.5" thickBot="1">
+      <c r="A77" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A80" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="1:5" ht="34.5" thickBot="1">
+      <c r="A86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="1:5" ht="34.5" thickBot="1">
+      <c r="A87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A88" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A90" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A93" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/table_2.xlsx
+++ b/table_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\UMich\SURE 2022\workspace\YOLOv4-DOT-visualizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF8785B-A5BA-4298-8BD8-95E511BDDCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6FB6A0-A208-40AB-9238-DC35EBDE3372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{B7E93F32-78D1-4619-84BC-8AFA962562A1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="237">
   <si>
     <t>Tensor name</t>
   </si>
@@ -563,9 +563,6 @@
     <t>nk_conv19       </t>
   </si>
   <si>
-    <t>nk_conv20      </t>
-  </si>
-  <si>
     <t>nk_conv20_input1     </t>
   </si>
   <si>
@@ -741,6 +738,12 @@
   </si>
   <si>
     <t>hd_conv18       </t>
+  </si>
+  <si>
+    <t>head_output</t>
+  </si>
+  <si>
+    <t>nk_conv20</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1153,7 +1156,7 @@
   <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2:C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1175,7 +1178,7 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1188,7 +1191,7 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1201,7 +1204,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1214,7 +1217,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1227,7 +1230,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1240,7 +1243,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1253,7 +1256,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1266,7 +1269,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1279,7 +1282,7 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1292,7 +1295,7 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1305,7 +1308,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1318,7 +1321,7 @@
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1331,7 +1334,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1344,7 +1347,7 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1357,7 +1360,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1370,7 +1373,7 @@
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1383,7 +1386,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1396,7 +1399,7 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1409,7 +1412,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1422,7 +1425,7 @@
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1435,7 +1438,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1448,7 +1451,7 @@
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1461,7 +1464,7 @@
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1474,7 +1477,7 @@
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1487,7 +1490,7 @@
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1500,7 +1503,7 @@
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1513,7 +1516,7 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1526,7 +1529,7 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1539,7 +1542,7 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1552,7 +1555,7 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1565,7 +1568,7 @@
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1578,7 +1581,7 @@
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1591,7 +1594,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1604,7 +1607,7 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -1617,7 +1620,7 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -1630,7 +1633,7 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1643,7 +1646,7 @@
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -1656,717 +1659,705 @@
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A39" s="1" t="s">
-        <v>177</v>
+      <c r="A39" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A40" s="1" t="s">
-        <v>180</v>
+      <c r="A40" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>182</v>
+        <v>105</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A41" s="1" t="s">
-        <v>183</v>
+      <c r="A41" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A42" s="1" t="s">
-        <v>183</v>
+      <c r="A42" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>231</v>
+        <v>111</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A43" s="1" t="s">
-        <v>186</v>
+      <c r="A43" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>188</v>
+        <v>112</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A44" s="1" t="s">
-        <v>189</v>
+      <c r="A44" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>188</v>
+        <v>113</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A45" s="1" t="s">
-        <v>190</v>
+      <c r="A45" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A46" s="1" t="s">
-        <v>193</v>
+      <c r="A46" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A47" s="1" t="s">
-        <v>196</v>
+      <c r="A47" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A48" s="1" t="s">
-        <v>199</v>
+      <c r="A48" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A49" s="1" t="s">
-        <v>202</v>
+      <c r="A49" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A50" s="1" t="s">
-        <v>202</v>
+      <c r="A50" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A51" s="1" t="s">
-        <v>206</v>
+      <c r="A51" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A52" s="1" t="s">
-        <v>209</v>
+      <c r="A52" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A53" s="1" t="s">
-        <v>212</v>
+      <c r="A53" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>211</v>
+        <v>134</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A54" s="1" t="s">
-        <v>213</v>
+      <c r="A54" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A55" s="1" t="s">
-        <v>216</v>
+      <c r="A55" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A56" s="1" t="s">
-        <v>219</v>
+      <c r="A56" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>220</v>
+        <v>141</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>221</v>
+        <v>142</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A57" s="1" t="s">
-        <v>222</v>
+      <c r="A57" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A58" s="1" t="s">
-        <v>225</v>
+      <c r="A58" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A59" s="1" t="s">
-        <v>228</v>
+      <c r="A59" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A60" s="1" t="s">
-        <v>232</v>
+      <c r="A60" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A61" s="1" t="s">
-        <v>234</v>
+      <c r="A61" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>235</v>
+        <v>156</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>231</v>
+        <v>157</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A62" s="1" t="s">
-        <v>100</v>
+      <c r="A62" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A63" s="1" t="s">
-        <v>103</v>
+      <c r="A63" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A64" s="1" t="s">
-        <v>106</v>
+      <c r="A64" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A65" s="1" t="s">
-        <v>109</v>
+      <c r="A65" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A66" s="1" t="s">
-        <v>109</v>
+      <c r="A66" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A67" s="1" t="s">
-        <v>109</v>
+      <c r="A67" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A68" s="1" t="s">
-        <v>109</v>
+      <c r="A68" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A69" s="1" t="s">
-        <v>115</v>
+      <c r="A69" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A70" s="1" t="s">
-        <v>117</v>
+      <c r="A70" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A71" s="1" t="s">
-        <v>119</v>
+      <c r="A71" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A72" s="1" t="s">
-        <v>121</v>
+      <c r="A72" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A73" s="1" t="s">
-        <v>124</v>
+      <c r="A73" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A74" s="1" t="s">
-        <v>127</v>
+      <c r="A74" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A75" s="1" t="s">
-        <v>130</v>
+      <c r="A75" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A76" s="1" t="s">
-        <v>133</v>
+    <row r="76" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A76" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A77" s="1" t="s">
-        <v>133</v>
+    <row r="77" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A77" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>74</v>
+        <v>199</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A78" s="1" t="s">
-        <v>135</v>
+      <c r="A78" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A79" s="1" t="s">
-        <v>138</v>
+      <c r="A79" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>139</v>
+        <v>202</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A80" s="1" t="s">
-        <v>140</v>
+      <c r="A80" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A81" s="1" t="s">
-        <v>143</v>
+      <c r="A81" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A82" s="1" t="s">
-        <v>146</v>
+      <c r="A82" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A83" s="1" t="s">
-        <v>149</v>
+      <c r="A83" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>151</v>
+        <v>214</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A84" s="1" t="s">
-        <v>152</v>
+      <c r="A84" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A85" s="1" t="s">
-        <v>155</v>
+      <c r="A85" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>156</v>
+        <v>219</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A86" s="1" t="s">
-        <v>158</v>
+    <row r="86" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A86" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" ht="34.5" thickBot="1">
-      <c r="A87" s="1" t="s">
-        <v>158</v>
+    <row r="87" spans="1:5" ht="23.25" thickBot="1">
+      <c r="A87" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A88" s="1" t="s">
-        <v>160</v>
+      <c r="A88" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A89" s="1" t="s">
-        <v>163</v>
+      <c r="A89" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A90" s="1" t="s">
-        <v>165</v>
+      <c r="A90" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>167</v>
+        <v>230</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A91" s="1" t="s">
-        <v>168</v>
+      <c r="A91" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A92" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>173</v>
-      </c>
+    <row r="92" spans="1:5" ht="15" thickBot="1">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="1:5" ht="23.25" thickBot="1">
-      <c r="A93" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>176</v>
-      </c>
+    <row r="93" spans="1:5" ht="15" thickBot="1">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
